--- a/Uncertainties_Dynamic_Planning/plot_distribution_exponential_scale20/R10/Intermodal_EGS_data_dynamic_exponential_scale20_table48.xlsx
+++ b/Uncertainties_Dynamic_Planning/plot_distribution_exponential_scale20/R10/Intermodal_EGS_data_dynamic_exponential_scale20_table48.xlsx
@@ -6165,11 +6165,11 @@
         <v>-1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[71, 158]</t>
+          <t>[179, 187]</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -6194,11 +6194,11 @@
         <v>-1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[71, 158]</t>
+          <t>[179, 187]</t>
         </is>
       </c>
       <c r="G3" t="n">
